--- a/Mifos Automation Excels/Loan Product/104-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/104-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>includeincustomerloancounter</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>decimalplaces</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>checked</t>
   </si>
   <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Per month</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -330,6 +330,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,20 +681,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -701,7 +702,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -709,7 +710,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>10000</v>
@@ -717,7 +718,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -725,7 +726,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -733,15 +734,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -749,103 +750,103 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
@@ -853,7 +854,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="12">
         <v>42005</v>
@@ -861,15 +862,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -877,7 +878,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" s="5">
         <v>10000</v>
@@ -885,106 +886,106 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1006,10 +1007,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/104-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/104-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -140,9 +140,6 @@
     <t>Declining Balance</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -331,6 +331,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +638,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,10 +687,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,8 +777,8 @@
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
+      <c r="B17" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +794,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,10 +815,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +834,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,12 +842,12 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
@@ -854,7 +855,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="12">
         <v>42005</v>
@@ -878,7 +879,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5">
         <v>10000</v>
@@ -886,7 +887,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>37</v>
@@ -897,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +922,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +930,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +938,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +962,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +970,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +986,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1008,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
